--- a/D-DHelper/Materials/CharactersBase.xlsx
+++ b/D-DHelper/Materials/CharactersBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>Surivial</t>
+  </si>
+  <si>
+    <t>Key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,16 +174,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Adobe Gothic Std B"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,21 +222,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Контрольная ячейка" xfId="2" builtinId="23"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:AF1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,105 +565,108 @@
     <col min="12" max="12" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
